--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H2">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I2">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J2">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.22702178916967</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N2">
-        <v>2.22702178916967</v>
+        <v>1.164353</v>
       </c>
       <c r="O2">
-        <v>0.5188404445132958</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P2">
-        <v>0.5188404445132958</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q2">
-        <v>5.230692834724604</v>
+        <v>0.9473635280572221</v>
       </c>
       <c r="R2">
-        <v>5.230692834724604</v>
+        <v>8.526271752514999</v>
       </c>
       <c r="S2">
-        <v>0.2838146940447235</v>
+        <v>0.04160726605799284</v>
       </c>
       <c r="T2">
-        <v>0.2838146940447235</v>
+        <v>0.04160726605799284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H3">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I3">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J3">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.878577454500976</v>
+        <v>2.230730666666667</v>
       </c>
       <c r="N3">
-        <v>0.878577454500976</v>
+        <v>6.692192</v>
       </c>
       <c r="O3">
-        <v>0.2046865994978</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="P3">
-        <v>0.2046865994978</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="Q3">
-        <v>2.063549094291647</v>
+        <v>5.445031380995555</v>
       </c>
       <c r="R3">
-        <v>2.063549094291647</v>
+        <v>49.00528242896</v>
       </c>
       <c r="S3">
-        <v>0.1119671090136734</v>
+        <v>0.2391403750024015</v>
       </c>
       <c r="T3">
-        <v>0.1119671090136734</v>
+        <v>0.2391403750024015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H4">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I4">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J4">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.519589171330137</v>
+        <v>0.9049766666666667</v>
       </c>
       <c r="N4">
-        <v>0.519589171330137</v>
+        <v>2.71493</v>
       </c>
       <c r="O4">
-        <v>0.1210512972653653</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="P4">
-        <v>0.1210512972653653</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="Q4">
-        <v>1.220379328435022</v>
+        <v>2.208974136905555</v>
       </c>
       <c r="R4">
-        <v>1.220379328435022</v>
+        <v>19.88076723215</v>
       </c>
       <c r="S4">
-        <v>0.06621715261483649</v>
+        <v>0.09701595206851059</v>
       </c>
       <c r="T4">
-        <v>0.06621715261483649</v>
+        <v>0.09701595206851059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H5">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I5">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J5">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.667117269184561</v>
+        <v>0.6326649999999999</v>
       </c>
       <c r="N5">
-        <v>0.667117269184561</v>
+        <v>1.897995</v>
       </c>
       <c r="O5">
-        <v>0.155421658723539</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="P5">
-        <v>0.155421658723539</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="Q5">
-        <v>1.566884319145238</v>
+        <v>1.544283597358333</v>
       </c>
       <c r="R5">
-        <v>1.566884319145238</v>
+        <v>13.898552376225</v>
       </c>
       <c r="S5">
-        <v>0.08501833460559041</v>
+        <v>0.06782340316187627</v>
       </c>
       <c r="T5">
-        <v>0.08501833460559041</v>
+        <v>0.06782340316187627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.41995227888788</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H6">
-        <v>0.41995227888788</v>
+        <v>7.322755</v>
       </c>
       <c r="I6">
-        <v>0.09780616825928723</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J6">
-        <v>0.09780616825928723</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.22702178916967</v>
+        <v>0.678114</v>
       </c>
       <c r="N6">
-        <v>2.22702178916967</v>
+        <v>2.034342</v>
       </c>
       <c r="O6">
-        <v>0.5188404445132958</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="P6">
-        <v>0.5188404445132958</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="Q6">
-        <v>0.9352428754947668</v>
+        <v>1.65522089469</v>
       </c>
       <c r="R6">
-        <v>0.9352428754947668</v>
+        <v>14.89698805221</v>
       </c>
       <c r="S6">
-        <v>0.05074579581579079</v>
+        <v>0.07269565917462255</v>
       </c>
       <c r="T6">
-        <v>0.05074579581579079</v>
+        <v>0.07269565917462255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41995227888788</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H7">
-        <v>0.41995227888788</v>
+        <v>1.81837</v>
       </c>
       <c r="I7">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J7">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.878577454500976</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N7">
-        <v>0.878577454500976</v>
+        <v>1.164353</v>
       </c>
       <c r="O7">
-        <v>0.2046865994978</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P7">
-        <v>0.2046865994978</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q7">
-        <v>0.3689606041971976</v>
+        <v>0.2352471738455555</v>
       </c>
       <c r="R7">
-        <v>0.3689606041971976</v>
+        <v>2.11722456461</v>
       </c>
       <c r="S7">
-        <v>0.02001961199090317</v>
+        <v>0.01033182243320614</v>
       </c>
       <c r="T7">
-        <v>0.02001961199090317</v>
+        <v>0.01033182243320614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41995227888788</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H8">
-        <v>0.41995227888788</v>
+        <v>1.81837</v>
       </c>
       <c r="I8">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J8">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.519589171330137</v>
+        <v>2.230730666666667</v>
       </c>
       <c r="N8">
-        <v>0.519589171330137</v>
+        <v>6.692192</v>
       </c>
       <c r="O8">
-        <v>0.1210512972653653</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="P8">
-        <v>0.1210512972653653</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="Q8">
-        <v>0.2182026565855562</v>
+        <v>1.352097907448889</v>
       </c>
       <c r="R8">
-        <v>0.2182026565855562</v>
+        <v>12.16888116704</v>
       </c>
       <c r="S8">
-        <v>0.01183956354834131</v>
+        <v>0.05938279837207674</v>
       </c>
       <c r="T8">
-        <v>0.01183956354834131</v>
+        <v>0.05938279837207675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.41995227888788</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H9">
-        <v>0.41995227888788</v>
+        <v>1.81837</v>
       </c>
       <c r="I9">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J9">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.667117269184561</v>
+        <v>0.9049766666666667</v>
       </c>
       <c r="N9">
-        <v>0.667117269184561</v>
+        <v>2.71493</v>
       </c>
       <c r="O9">
-        <v>0.155421658723539</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="P9">
-        <v>0.155421658723539</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="Q9">
-        <v>0.2801574174795157</v>
+        <v>0.5485274737888889</v>
       </c>
       <c r="R9">
-        <v>0.2801574174795157</v>
+        <v>4.9367472641</v>
       </c>
       <c r="S9">
-        <v>0.01520119690425197</v>
+        <v>0.02409078233025925</v>
       </c>
       <c r="T9">
-        <v>0.01520119690425197</v>
+        <v>0.02409078233025926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.52502854011227</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H10">
-        <v>1.52502854011227</v>
+        <v>1.81837</v>
       </c>
       <c r="I10">
-        <v>0.3551765414618889</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J10">
-        <v>0.3551765414618889</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.22702178916967</v>
+        <v>0.6326649999999999</v>
       </c>
       <c r="N10">
-        <v>2.22702178916967</v>
+        <v>1.897995</v>
       </c>
       <c r="O10">
-        <v>0.5188404445132958</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="P10">
-        <v>0.5188404445132958</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="Q10">
-        <v>3.396271787935638</v>
+        <v>0.3834730186833333</v>
       </c>
       <c r="R10">
-        <v>3.396271787935638</v>
+        <v>3.45125716815</v>
       </c>
       <c r="S10">
-        <v>0.1842799546527815</v>
+        <v>0.01684175444999333</v>
       </c>
       <c r="T10">
-        <v>0.1842799546527815</v>
+        <v>0.01684175444999334</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.52502854011227</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H11">
-        <v>1.52502854011227</v>
+        <v>1.81837</v>
       </c>
       <c r="I11">
-        <v>0.3551765414618889</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J11">
-        <v>0.3551765414618889</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.878577454500976</v>
+        <v>0.678114</v>
       </c>
       <c r="N11">
-        <v>0.878577454500976</v>
+        <v>2.034342</v>
       </c>
       <c r="O11">
-        <v>0.2046865994978</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="P11">
-        <v>0.2046865994978</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="Q11">
-        <v>1.339855692813178</v>
+        <v>0.41102071806</v>
       </c>
       <c r="R11">
-        <v>1.339855692813178</v>
+        <v>3.69918646254</v>
       </c>
       <c r="S11">
-        <v>0.07269987849322343</v>
+        <v>0.01805162207029436</v>
       </c>
       <c r="T11">
-        <v>0.07269987849322343</v>
+        <v>0.01805162207029436</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.52502854011227</v>
+        <v>1.662586</v>
       </c>
       <c r="H12">
-        <v>1.52502854011227</v>
+        <v>4.987757999999999</v>
       </c>
       <c r="I12">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="J12">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.519589171330137</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N12">
-        <v>0.519589171330137</v>
+        <v>1.164353</v>
       </c>
       <c r="O12">
-        <v>0.1210512972653653</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P12">
-        <v>0.1210512972653653</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q12">
-        <v>0.792388315411743</v>
+        <v>0.6452789989526666</v>
       </c>
       <c r="R12">
-        <v>0.792388315411743</v>
+        <v>5.807510990573999</v>
       </c>
       <c r="S12">
-        <v>0.04299458110218744</v>
+        <v>0.02834001330631466</v>
       </c>
       <c r="T12">
-        <v>0.04299458110218744</v>
+        <v>0.02834001330631466</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.662586</v>
+      </c>
+      <c r="H13">
+        <v>4.987757999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.3530185648787664</v>
+      </c>
+      <c r="J13">
+        <v>0.3530185648787664</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.230730666666667</v>
+      </c>
+      <c r="N13">
+        <v>6.692192</v>
+      </c>
+      <c r="O13">
+        <v>0.4614091798762974</v>
+      </c>
+      <c r="P13">
+        <v>0.4614091798762974</v>
+      </c>
+      <c r="Q13">
+        <v>3.708781576170666</v>
+      </c>
+      <c r="R13">
+        <v>33.379034185536</v>
+      </c>
+      <c r="S13">
+        <v>0.1628860065018191</v>
+      </c>
+      <c r="T13">
+        <v>0.1628860065018191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.52502854011227</v>
-      </c>
-      <c r="H13">
-        <v>1.52502854011227</v>
-      </c>
-      <c r="I13">
-        <v>0.3551765414618889</v>
-      </c>
-      <c r="J13">
-        <v>0.3551765414618889</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.667117269184561</v>
-      </c>
-      <c r="N13">
-        <v>0.667117269184561</v>
-      </c>
-      <c r="O13">
-        <v>0.155421658723539</v>
-      </c>
-      <c r="P13">
-        <v>0.155421658723539</v>
-      </c>
-      <c r="Q13">
-        <v>1.017372875108215</v>
-      </c>
-      <c r="R13">
-        <v>1.017372875108215</v>
-      </c>
-      <c r="S13">
-        <v>0.0552021272136966</v>
-      </c>
-      <c r="T13">
-        <v>0.0552021272136966</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.662586</v>
+      </c>
+      <c r="H14">
+        <v>4.987757999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.3530185648787664</v>
+      </c>
+      <c r="J14">
+        <v>0.3530185648787664</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9049766666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.71493</v>
+      </c>
+      <c r="O14">
+        <v>0.1871873408177105</v>
+      </c>
+      <c r="P14">
+        <v>0.1871873408177105</v>
+      </c>
+      <c r="Q14">
+        <v>1.504601536326666</v>
+      </c>
+      <c r="R14">
+        <v>13.54141382694</v>
+      </c>
+      <c r="S14">
+        <v>0.0660806064189407</v>
+      </c>
+      <c r="T14">
+        <v>0.0660806064189407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.662586</v>
+      </c>
+      <c r="H15">
+        <v>4.987757999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.3530185648787664</v>
+      </c>
+      <c r="J15">
+        <v>0.3530185648787664</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6326649999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.897995</v>
+      </c>
+      <c r="O15">
+        <v>0.1308618037795857</v>
+      </c>
+      <c r="P15">
+        <v>0.1308618037795857</v>
+      </c>
+      <c r="Q15">
+        <v>1.05185997169</v>
+      </c>
+      <c r="R15">
+        <v>9.466739745209999</v>
+      </c>
+      <c r="S15">
+        <v>0.04619664616771606</v>
+      </c>
+      <c r="T15">
+        <v>0.04619664616771606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.662586</v>
+      </c>
+      <c r="H16">
+        <v>4.987757999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.3530185648787664</v>
+      </c>
+      <c r="J16">
+        <v>0.3530185648787664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.678114</v>
+      </c>
+      <c r="N16">
+        <v>2.034342</v>
+      </c>
+      <c r="O16">
+        <v>0.1402625737288928</v>
+      </c>
+      <c r="P16">
+        <v>0.1402625737288928</v>
+      </c>
+      <c r="Q16">
+        <v>1.127422842804</v>
+      </c>
+      <c r="R16">
+        <v>10.146805585236</v>
+      </c>
+      <c r="S16">
+        <v>0.0495152924839759</v>
+      </c>
+      <c r="T16">
+        <v>0.0495152924839759</v>
       </c>
     </row>
   </sheetData>
